--- a/biology/Microbiologie/Colwellia_ponticola/Colwellia_ponticola.xlsx
+++ b/biology/Microbiologie/Colwellia_ponticola/Colwellia_ponticola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colwellia ponticola est une des espèces du genre de bactéries marines Colwellia. Ce sont des bacilles à Gram négatif de la famille des Colwelliaceae faisant partie de l'embranchement des Pseudomonadota.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La souche type de l'espèce C. ponticola, nommée OISW-25, a été isolée en mer à proximité de l'île d'Oido en République de Corée et décrite en 2019[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La souche type de l'espèce C. ponticola, nommée OISW-25, a été isolée en mer à proximité de l'île d'Oido en République de Corée et décrite en 2019.
 </t>
         </is>
       </c>
@@ -544,10 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de cette espèce Colwellia ponticola est la suivante :  pon.ti’co.la L. masc. n. pontus, la mer; L. masc./fem. n. suff. -cola, habitant; de L. masc./fem. n. incola, habitant; N.L. masc./fem. n. ponticola, habitant en mer[2],[3].
-Phylogénie
-Les analyses phylogéniques avec la séquence nucléotidique de l'ARNr 16S de la souche OISW-25 ont permis de classer cette bactérie parmi les espèces de Colwellia sur le même nœud que l'espèce Colwellia marinimaniae[4]. La souche OISW-25 présente une homologie de cette séquence ARNr 16S de 97,5 %, 97,2 % et 97,1 % avec celle des souches type de C. piezophila, C. maris et C. psychrerythraea, respectivement[1]. La séquence de l'ARNR 16S présente une homologie de 97,5 % avec celle de l'espèce C. asteriadis. Ce genre bactérien est phylogénétiquement inclus dans la classe des Pseudomonadota (ex Proteobacteria)[5].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cette espèce Colwellia ponticola est la suivante :  pon.ti’co.la L. masc. n. pontus, la mer; L. masc./fem. n. suff. -cola, habitant; de L. masc./fem. n. incola, habitant; N.L. masc./fem. n. ponticola, habitant en mer,.
 </t>
         </is>
       </c>
@@ -573,12 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colwellia ponticola est une bactérie anaérobie facultative à Gram négatif. Cette espèce est formée des bacilles positifs pour les tests catalase et oxydase[1].
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les analyses phylogéniques avec la séquence nucléotidique de l'ARNr 16S de la souche OISW-25 ont permis de classer cette bactérie parmi les espèces de Colwellia sur le même nœud que l'espèce Colwellia marinimaniae. La souche OISW-25 présente une homologie de cette séquence ARNr 16S de 97,5 %, 97,2 % et 97,1 % avec celle des souches type de C. piezophila, C. maris et C. psychrerythraea, respectivement. La séquence de l'ARNR 16S présente une homologie de 97,5 % avec celle de l'espèce C. asteriadis. Ce genre bactérien est phylogénétiquement inclus dans la classe des Pseudomonadota (ex Proteobacteria).
 </t>
         </is>
       </c>
@@ -604,12 +627,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colwellia ponticola est une bactérie anaérobie facultative à Gram négatif. Cette espèce est formée des bacilles positifs pour les tests catalase et oxydase.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Colwellia_ponticola</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colwellia_ponticola</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La souche type de cette espèce a été isolé en mer au large de l'île d'Oido, une île localisée dans la mer jaune en Corée du Sud[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La souche type de cette espèce a été isolé en mer au large de l'île d'Oido, une île localisée dans la mer jaune en Corée du Sud.
 </t>
         </is>
       </c>
